--- a/Documentation/X-TPI-pittierst-GrilleDeTests.xlsx
+++ b/Documentation/X-TPI-pittierst-GrilleDeTests.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
   <si>
     <t>Fonction à tester</t>
   </si>
@@ -129,6 +129,75 @@
   </si>
   <si>
     <t>Dans le panneau de résultat, un texte viens prévenir l'utillisateur de son erreur</t>
+  </si>
+  <si>
+    <t>Un messageBox apparait pour prévenir l'utilisateur qu'il faut une valeur et une base pour convertir</t>
+  </si>
+  <si>
+    <t>OK / KO</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Tout les champs des autres formats se remplissnet avec les bonnes valeurs</t>
+  </si>
+  <si>
+    <t>Remarques</t>
+  </si>
+  <si>
+    <t>Penser à bien espacer les groupes de 4 bits</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>Le programme passe outre la vérification et plante lors de la converison</t>
+  </si>
+  <si>
+    <t>Intégrer des RegEX pour verifier les caractères de chaque valeur</t>
+  </si>
+  <si>
+    <t>Pour les valeurs 23 et 15 on obtient bien le résultat 38</t>
+  </si>
+  <si>
+    <t>Le résultat de l'opération est donné dans la base de la valeur 1</t>
+  </si>
+  <si>
+    <t>Pour les valeurs 23 et 15 on obtient bien le résultat 08</t>
+  </si>
+  <si>
+    <t>La soustraction ne peut pas aller dans les valeurs négatives</t>
+  </si>
+  <si>
+    <t>Le programme plante avant d'afficher les résultats</t>
+  </si>
+  <si>
+    <t>Suite à la mise à jour de la fonction de multiplication, le 31.05.2017, il se peut qu'un petit bug se soit glisser dans le code</t>
+  </si>
+  <si>
+    <t>Le résultat s'affiche bien dans le panneau de résultat</t>
+  </si>
+  <si>
+    <t>Penser que le nombre affiché est un nombre sans virgule</t>
+  </si>
+  <si>
+    <t>Le programme plante</t>
+  </si>
+  <si>
+    <t>Corriger le bug dans la fonction multiplicate value</t>
+  </si>
+  <si>
+    <t>Corriger le bug en intégrant une fonction de vérification des valeurs</t>
+  </si>
+  <si>
+    <t>Afficher le panneau d'aide</t>
+  </si>
+  <si>
+    <t>Un messageBox doit apparaitres pour donner les informations ainsi que les remarques sur le programme</t>
+  </si>
+  <si>
+    <t>Le massageBox s'affiche bien et permet de montrer les informations de bases</t>
   </si>
 </sst>
 </file>
@@ -191,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -200,9 +269,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -210,7 +276,19 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,10 +570,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,11 +584,12 @@
     <col min="1" max="1" width="38.28515625" customWidth="1"/>
     <col min="2" max="2" width="42.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="6" width="26.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -518,437 +600,706 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="C3" s="8">
+        <v>42887</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="C4" s="8">
+        <v>42887</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="C5" s="8">
+        <v>42887</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="C6" s="8">
+        <v>42887</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="C7" s="8">
+        <v>42887</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="C8" s="8">
+        <v>42887</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="C9" s="8">
+        <v>42887</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="C10" s="8">
+        <v>42887</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="C11" s="8">
+        <v>42522</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="8">
+        <v>42887</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="C14" s="8">
+        <v>42522</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="C15" s="8">
+        <v>42522</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="C16" s="8">
+        <v>42522</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="C17" s="8">
+        <v>42522</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="C18" s="8">
+        <v>42522</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="C19" s="8">
+        <v>42522</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="C20" s="8">
+        <v>42522</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="C21" s="8">
+        <v>42522</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="C22" s="8">
+        <v>42522</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="C23" s="8">
+        <v>42522</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="8">
+        <v>42522</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="2"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="2"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="2"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="2"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="2"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="2"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="2"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="2"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="2"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="2"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="2"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="2"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="2"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="2"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="2"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="2"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="2"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="2"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="2"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="2"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="2"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="2"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="2"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="12" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
--- a/Documentation/X-TPI-pittierst-GrilleDeTests.xlsx
+++ b/Documentation/X-TPI-pittierst-GrilleDeTests.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="60">
   <si>
     <t>Fonction à tester</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>Le massageBox s'affiche bien et permet de montrer les informations de bases</t>
+  </si>
+  <si>
+    <t>La fonction fonctionne mais il reste un petit soucis. Quand je multiplie une valeur 2 plus grande que la valeur 1 le code plante</t>
+  </si>
+  <si>
+    <t>Le programme affiche le résultat</t>
   </si>
 </sst>
 </file>
@@ -275,12 +281,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -289,6 +289,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,10 +579,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,7 +592,7 @@
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="6" width="26.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -608,20 +614,20 @@
       <c r="F1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -630,10 +636,10 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8">
-        <v>42887</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="6">
+        <v>42887</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -649,10 +655,10 @@
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8">
-        <v>42887</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="6">
+        <v>42887</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -668,10 +674,10 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8">
-        <v>42887</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="6">
+        <v>42887</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -687,10 +693,10 @@
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8">
-        <v>42887</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="6">
+        <v>42887</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -706,10 +712,10 @@
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8">
-        <v>42887</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="6">
+        <v>42887</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -727,10 +733,10 @@
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8">
-        <v>42887</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="6">
+        <v>42887</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -746,10 +752,10 @@
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="8">
-        <v>42887</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="6">
+        <v>42887</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -765,10 +771,10 @@
       <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="8">
-        <v>42887</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="6">
+        <v>42887</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -784,8 +790,8 @@
       <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="8">
-        <v>42522</v>
+      <c r="C11" s="6">
+        <v>42887</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>41</v>
@@ -805,7 +811,7 @@
       <c r="B12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>42887</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -818,15 +824,15 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -835,8 +841,8 @@
       <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="8">
-        <v>42522</v>
+      <c r="C14" s="6">
+        <v>42887</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>37</v>
@@ -854,8 +860,8 @@
       <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="8">
-        <v>42522</v>
+      <c r="C15" s="6">
+        <v>42887</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>37</v>
@@ -873,8 +879,8 @@
       <c r="B16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="8">
-        <v>42522</v>
+      <c r="C16" s="6">
+        <v>42887</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>37</v>
@@ -894,8 +900,8 @@
       <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="8">
-        <v>42522</v>
+      <c r="C17" s="6">
+        <v>42887</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>37</v>
@@ -915,8 +921,8 @@
       <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="8">
-        <v>42522</v>
+      <c r="C18" s="6">
+        <v>42887</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>41</v>
@@ -933,55 +939,55 @@
     </row>
     <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="8">
-        <v>42522</v>
+      <c r="C19" s="6">
+        <v>42888</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="6">
+        <v>42887</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="8">
-        <v>42522</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="8">
-        <v>42522</v>
+      <c r="C21" s="6">
+        <v>42887</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>37</v>
@@ -994,36 +1000,36 @@
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="8">
-        <v>42522</v>
+        <v>29</v>
+      </c>
+      <c r="C22" s="6">
+        <v>42887</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4" t="s">
-        <v>54</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="8">
-        <v>42522</v>
+      <c r="C23" s="6">
+        <v>42887</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>41</v>
@@ -1038,13 +1044,13 @@
     </row>
     <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="8">
-        <v>42522</v>
+      <c r="C24" s="6">
+        <v>42887</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>41</v>
@@ -1057,14 +1063,26 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="1"/>
+    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="6">
+        <v>42887</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
@@ -1130,8 +1148,8 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1290,6 +1308,15 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
